--- a/2022/Realme/MARCH/13.03.2022/realme Bank Statement March-2022.xlsx
+++ b/2022/Realme/MARCH/13.03.2022/realme Bank Statement March-2022.xlsx
@@ -256,9 +256,6 @@
     <t>Hand</t>
   </si>
   <si>
-    <t>Shaha Realme Showroom</t>
-  </si>
-  <si>
     <t>Zilani Mobile</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
   </si>
   <si>
     <t>Tuhin Mobile</t>
-  </si>
-  <si>
-    <t>GT NEO 2</t>
   </si>
   <si>
     <t>Bank Cost</t>
@@ -401,6 +395,12 @@
   </si>
   <si>
     <t xml:space="preserve">N.B: Boss NRB Account RTGS 10 Lac. </t>
+  </si>
+  <si>
+    <t>Jilani Mobile</t>
+  </si>
+  <si>
+    <t>Sadar</t>
   </si>
 </sst>
 </file>
@@ -2575,6 +2575,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2602,30 +2620,12 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2686,6 +2686,15 @@
     <xf numFmtId="0" fontId="40" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="34" fillId="40" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="40" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="40" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2729,15 +2738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="40" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="40" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="34" fillId="40" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3272,7 +3272,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3300,7 +3300,7 @@
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="269" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="269"/>
       <c r="D2" s="269"/>
@@ -3368,7 +3368,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="19">
         <v>0</v>
@@ -3389,7 +3389,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="19">
         <v>182850</v>
@@ -3402,7 +3402,7 @@
         <v>17897</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3412,7 +3412,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="15"/>
       <c r="B9" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="22">
         <v>0</v>
@@ -3433,7 +3433,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="15"/>
       <c r="B10" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="19">
         <v>500000</v>
@@ -3454,7 +3454,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="15"/>
       <c r="B11" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="19">
         <v>0</v>
@@ -3475,7 +3475,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="15"/>
       <c r="B12" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="19">
         <v>1000000</v>
@@ -3488,7 +3488,7 @@
         <v>27797</v>
       </c>
       <c r="F12" s="263" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="1"/>
@@ -3498,7 +3498,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="15"/>
       <c r="B13" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="19">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="15"/>
       <c r="B14" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="19">
         <v>445000</v>
@@ -3540,7 +3540,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="19">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
       <c r="B16" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="19">
         <v>270000</v>
@@ -4103,7 +4103,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4121,67 +4121,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="277" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="272" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="273"/>
-      <c r="K3" s="273"/>
-      <c r="L3" s="273"/>
-      <c r="M3" s="273"/>
-      <c r="N3" s="273"/>
-      <c r="O3" s="273"/>
-      <c r="P3" s="273"/>
-      <c r="Q3" s="274"/>
+      <c r="A3" s="278" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="280"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4190,52 +4190,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="281" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="283" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="270" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="279" t="s">
+      <c r="D4" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="279" t="s">
+      <c r="E4" s="270" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="279" t="s">
+      <c r="F4" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="279" t="s">
+      <c r="G4" s="270" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="279" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="279" t="s">
+      <c r="H4" s="270" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="270" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="279" t="s">
+      <c r="J4" s="270" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="279" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="279" t="s">
+      <c r="K4" s="270" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="270" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="279" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="285" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="283" t="s">
+      <c r="M4" s="270" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="274" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="281" t="s">
+      <c r="P4" s="285" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4248,22 +4248,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="276"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="286"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="282"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="271"/>
+      <c r="K5" s="271"/>
+      <c r="L5" s="271"/>
+      <c r="M5" s="271"/>
+      <c r="N5" s="275"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="286"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="6" spans="1:24" s="9" customFormat="1">
       <c r="A6" s="98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="99">
         <v>500</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="7" spans="1:24" s="9" customFormat="1">
       <c r="A7" s="98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="99"/>
       <c r="C7" s="99"/>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="8" spans="1:24" s="9" customFormat="1">
       <c r="A8" s="98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="106"/>
       <c r="C8" s="99"/>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="9" spans="1:24" s="9" customFormat="1">
       <c r="A9" s="98" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="106">
         <v>500</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="10" spans="1:24" s="9" customFormat="1">
       <c r="A10" s="98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="106"/>
       <c r="C10" s="99"/>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="11" spans="1:24" s="9" customFormat="1">
       <c r="A11" s="98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="106"/>
       <c r="C11" s="99"/>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="12" spans="1:24" s="9" customFormat="1">
       <c r="A12" s="98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="106">
         <v>500</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="13" spans="1:24" s="9" customFormat="1">
       <c r="A13" s="98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="106"/>
       <c r="C13" s="99"/>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="14" spans="1:24" s="9" customFormat="1">
       <c r="A14" s="98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="106"/>
       <c r="C14" s="99"/>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="15" spans="1:24" s="9" customFormat="1">
       <c r="A15" s="98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="106">
         <v>500</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="16" spans="1:24" s="9" customFormat="1">
       <c r="A16" s="98" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="106"/>
       <c r="C16" s="99"/>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="H16" s="107"/>
       <c r="I16" s="107">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J16" s="107">
         <v>160</v>
@@ -4673,7 +4673,7 @@
       <c r="P16" s="109"/>
       <c r="Q16" s="103">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="R16" s="104"/>
       <c r="S16" s="4"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="I37" s="125">
         <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="J37" s="125">
         <f t="shared" si="1"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="Q37" s="127">
         <f>SUM(Q6:Q36)</f>
-        <v>8400</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7249,9 +7249,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7268,6 +7265,9 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7279,7 +7279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
@@ -9129,12 +9129,10 @@
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="43">
-        <v>-653570</v>
-      </c>
+      <c r="D28" s="43"/>
       <c r="E28" s="43">
         <f t="shared" si="0"/>
-        <v>-653570</v>
+        <v>0</v>
       </c>
       <c r="F28" s="144"/>
       <c r="G28" s="38"/>
@@ -9267,10 +9265,12 @@
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="43">
+        <v>-580390</v>
+      </c>
       <c r="E30" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-580390</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="57"/>
@@ -9403,12 +9403,10 @@
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="43">
-        <v>-6020</v>
-      </c>
+      <c r="D32" s="43"/>
       <c r="E32" s="43">
         <f t="shared" si="0"/>
-        <v>-6020</v>
+        <v>0</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="63"/>
@@ -9479,11 +9477,11 @@
       <c r="D33" s="43"/>
       <c r="E33" s="43">
         <f>SUM(E5:E32)</f>
-        <v>-659590</v>
+        <v>-580390</v>
       </c>
       <c r="F33" s="43">
         <f>B33-E33</f>
-        <v>659590</v>
+        <v>580390</v>
       </c>
       <c r="G33" s="60"/>
       <c r="H33" s="147"/>
@@ -9746,7 +9744,7 @@
         <v>31990</v>
       </c>
       <c r="D37" s="257" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="39"/>
@@ -9879,16 +9877,16 @@
     </row>
     <row r="39" spans="1:61" ht="14.25">
       <c r="A39" s="229" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" s="229" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="230">
         <v>31990</v>
       </c>
       <c r="D39" s="232" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="39"/>
@@ -9950,7 +9948,7 @@
     </row>
     <row r="40" spans="1:61" ht="14.25">
       <c r="A40" s="229" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="229" t="s">
         <v>51</v>
@@ -9959,7 +9957,7 @@
         <v>4500</v>
       </c>
       <c r="D40" s="232" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="39"/>
@@ -10101,7 +10099,7 @@
         <v>100000</v>
       </c>
       <c r="D42" s="232" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="168"/>
       <c r="G42" s="67"/>
@@ -10171,7 +10169,7 @@
         <v>290000</v>
       </c>
       <c r="D43" s="233" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="304" t="s">
@@ -10235,11 +10233,11 @@
     </row>
     <row r="44" spans="1:61" ht="14.25">
       <c r="A44" s="229" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="229"/>
       <c r="C44" s="230">
-        <v>98660</v>
+        <v>38660</v>
       </c>
       <c r="D44" s="233" t="s">
         <v>105</v>
@@ -10303,13 +10301,13 @@
     </row>
     <row r="45" spans="1:61" ht="14.25">
       <c r="A45" s="229" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B45" s="229" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C45" s="230">
-        <v>29710</v>
+        <v>10510</v>
       </c>
       <c r="D45" s="232" t="s">
         <v>105</v>
@@ -10376,13 +10374,13 @@
         <v>52</v>
       </c>
       <c r="B46" s="229" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="230">
         <v>1500</v>
       </c>
       <c r="D46" s="232" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="240"/>
@@ -10443,16 +10441,16 @@
     </row>
     <row r="47" spans="1:61" ht="14.25">
       <c r="A47" s="258" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="229" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="230">
         <v>31990</v>
       </c>
       <c r="D47" s="232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="240"/>
@@ -10513,16 +10511,16 @@
     </row>
     <row r="48" spans="1:61" ht="14.25">
       <c r="A48" s="229" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="229" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" s="230">
         <v>31990</v>
       </c>
       <c r="D48" s="232" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="240"/>
@@ -10583,16 +10581,16 @@
     </row>
     <row r="49" spans="1:61" ht="14.25">
       <c r="A49" s="229" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="229" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="230">
         <v>1000</v>
       </c>
       <c r="D49" s="232" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="240"/>
@@ -14985,7 +14983,7 @@
       <c r="B119" s="290"/>
       <c r="C119" s="227">
         <f>SUM(C37:C118)</f>
-        <v>659590</v>
+        <v>580390</v>
       </c>
       <c r="D119" s="226"/>
       <c r="F119" s="246"/>
@@ -16427,8 +16425,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16453,35 +16451,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309"/>
+      <c r="B1" s="311"/>
+      <c r="C1" s="311"/>
+      <c r="D1" s="311"/>
+      <c r="E1" s="312"/>
       <c r="F1" s="188"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="316" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="318"/>
+      <c r="A2" s="319" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="321"/>
       <c r="F2" s="188"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="310" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="312"/>
+      <c r="A3" s="313" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="315"/>
       <c r="F3" s="188"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -16508,13 +16506,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="322" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="320"/>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="321"/>
+      <c r="B4" s="323"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="324"/>
       <c r="F4" s="188"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
@@ -16544,7 +16542,7 @@
     </row>
     <row r="5" spans="1:29" ht="21.75">
       <c r="A5" s="192" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="193">
         <v>9000000</v>
@@ -16554,7 +16552,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="182">
-        <v>11149070</v>
+        <v>10761190</v>
       </c>
       <c r="F5" s="188"/>
       <c r="J5" s="1"/>
@@ -16583,11 +16581,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="159">
-        <v>91056.1</v>
+        <v>100588.1</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="154" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="160">
         <v>23997</v>
@@ -16621,7 +16619,9 @@
       <c r="D7" s="154" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="183"/>
+      <c r="E7" s="183">
+        <v>350751.09999999963</v>
+      </c>
       <c r="F7" s="188"/>
       <c r="H7" s="29"/>
       <c r="I7" s="1"/>
@@ -16682,14 +16682,14 @@
         <v>56</v>
       </c>
       <c r="B9" s="159">
-        <v>8400</v>
+        <v>8420</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="154" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="160">
-        <v>659590</v>
+        <v>580390</v>
       </c>
       <c r="F9" s="188"/>
       <c r="G9" s="29"/>
@@ -16790,11 +16790,11 @@
       </c>
       <c r="B12" s="261">
         <f>B6+B7-B9-B10</f>
-        <v>82656.100000000006</v>
+        <v>92168.1</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="154" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="160">
         <v>59440</v>
@@ -16861,7 +16861,7 @@
     </row>
     <row r="14" spans="1:29" ht="21.75">
       <c r="A14" s="266" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="267">
         <v>50000</v>
@@ -16927,7 +16927,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="264" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="265">
         <v>3000000</v>
@@ -16967,7 +16967,7 @@
       </c>
       <c r="B17" s="159">
         <f>B5+B6-B9-B10-B14+B15+B16</f>
-        <v>12032656.1</v>
+        <v>12042168.1</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="154" t="s">
@@ -16975,12 +16975,12 @@
       </c>
       <c r="E17" s="160">
         <f>E5+E6+E7+E9+E10+E12</f>
-        <v>12158497</v>
+        <v>12042168.1</v>
       </c>
       <c r="F17" s="188"/>
       <c r="G17" s="135">
         <f>B17-E17</f>
-        <v>-125840.90000000037</v>
+        <v>0</v>
       </c>
       <c r="H17" s="151"/>
       <c r="I17" s="1"/>
@@ -17038,13 +17038,13 @@
       <c r="AC18" s="1"/>
     </row>
     <row r="19" spans="1:29" ht="23.25" thickBot="1">
-      <c r="A19" s="313" t="s">
+      <c r="A19" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="314"/>
-      <c r="C19" s="314"/>
-      <c r="D19" s="314"/>
-      <c r="E19" s="315"/>
+      <c r="B19" s="317"/>
+      <c r="C19" s="317"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="318"/>
       <c r="F19" s="188"/>
       <c r="G19" s="8"/>
       <c r="H19" s="151"/>
@@ -17072,14 +17072,14 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="186" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="190">
         <v>31990</v>
       </c>
       <c r="C20" s="187"/>
       <c r="D20" s="187" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="191">
         <v>31990</v>
@@ -17110,14 +17110,14 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="199" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="197">
         <v>100000</v>
       </c>
       <c r="C21" s="198"/>
       <c r="D21" s="196" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="200">
         <v>31990</v>
@@ -17149,14 +17149,14 @@
     </row>
     <row r="22" spans="1:29" s="1" customFormat="1" ht="21.75">
       <c r="A22" s="199" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="197">
         <v>280000</v>
       </c>
       <c r="C22" s="198"/>
       <c r="D22" s="196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="200">
         <v>31990</v>
@@ -17166,14 +17166,14 @@
     </row>
     <row r="23" spans="1:29" s="1" customFormat="1" ht="22.5" thickBot="1">
       <c r="A23" s="203" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="204">
         <v>37340</v>
       </c>
       <c r="C23" s="259"/>
       <c r="D23" s="205" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="206">
         <v>98550</v>
@@ -17182,13 +17182,13 @@
       <c r="G23" s="163"/>
     </row>
     <row r="24" spans="1:29" s="1" customFormat="1" ht="22.5" thickBot="1">
-      <c r="A24" s="322" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="323"/>
-      <c r="C24" s="323"/>
-      <c r="D24" s="323"/>
-      <c r="E24" s="324"/>
+      <c r="A24" s="307" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="308"/>
+      <c r="C24" s="308"/>
+      <c r="D24" s="308"/>
+      <c r="E24" s="309"/>
       <c r="F24" s="163"/>
       <c r="G24" s="163"/>
     </row>
